--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/10/seed1/result_data_RandomForest.xlsx
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.12490000000001</v>
+        <v>13.21960000000001</v>
       </c>
     </row>
     <row r="5">
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>11.80799999999999</v>
+        <v>12.0127</v>
       </c>
     </row>
     <row r="8">
@@ -712,7 +712,7 @@
         <v>-4.8</v>
       </c>
       <c r="E16" t="n">
-        <v>12.12790000000001</v>
+        <v>11.93570000000001</v>
       </c>
     </row>
     <row r="17">
